--- a/projects/money_counter/design_results.xlsx
+++ b/projects/money_counter/design_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,72 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mae_total</t>
+          <t>cv_mean</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>n_coins</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>best_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>best_1_val</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>best_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>best_2_val</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>best_3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>best_3_val</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>worst_1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>worst_1_val</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>worst_2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>worst_2_val</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>worst_3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>w_3_errores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>best_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>b_3_errores</t>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>worst_3_val</t>
         </is>
       </c>
     </row>
@@ -483,27 +528,58 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>516</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="3">
@@ -516,30 +592,61 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E3" t="n">
+        <v>467</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="4">
@@ -552,30 +659,61 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E4" t="n">
+        <v>453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="5">
@@ -588,30 +726,61 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E5" t="n">
+        <v>452</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="6">
@@ -624,30 +793,61 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E6" t="n">
+        <v>452</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="7">
@@ -660,30 +860,61 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E7" t="n">
+        <v>452</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="8">
@@ -696,30 +927,61 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E8" t="n">
+        <v>452</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="9">
@@ -732,30 +994,61 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E9" t="n">
+        <v>450</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="10">
@@ -768,30 +1061,61 @@
         <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E10" t="n">
+        <v>448</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="11">
@@ -804,30 +1128,61 @@
         <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E11" t="n">
+        <v>443</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +1195,62 @@
         <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E12" t="n">
+        <v>421</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -861,27 +1265,58 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E13" t="n">
+        <v>516</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="14">
@@ -894,30 +1329,61 @@
         <v>0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E14" t="n">
+        <v>467</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="15">
@@ -930,30 +1396,61 @@
         <v>0.6</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E15" t="n">
+        <v>453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="16">
@@ -966,30 +1463,61 @@
         <v>0.6</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E16" t="n">
+        <v>452</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="17">
@@ -1002,30 +1530,61 @@
         <v>0.6</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E17" t="n">
+        <v>452</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="18">
@@ -1038,30 +1597,61 @@
         <v>0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E18" t="n">
+        <v>452</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="19">
@@ -1074,30 +1664,61 @@
         <v>0.6</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E19" t="n">
+        <v>452</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="20">
@@ -1110,30 +1731,61 @@
         <v>0.6</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E20" t="n">
+        <v>450</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="21">
@@ -1146,30 +1798,61 @@
         <v>0.6</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E21" t="n">
+        <v>448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="22">
@@ -1182,30 +1865,61 @@
         <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E22" t="n">
+        <v>443</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="23">
@@ -1218,13 +1932,62 @@
         <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E23" t="n">
+        <v>421</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1239,27 +2002,58 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E24" t="n">
+        <v>516</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="25">
@@ -1272,30 +2066,61 @@
         <v>0.7</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E25" t="n">
+        <v>467</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="26">
@@ -1308,30 +2133,61 @@
         <v>0.7</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E26" t="n">
+        <v>453</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="27">
@@ -1344,30 +2200,61 @@
         <v>0.7</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E27" t="n">
+        <v>452</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="28">
@@ -1380,30 +2267,61 @@
         <v>0.7</v>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E28" t="n">
+        <v>452</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="29">
@@ -1416,30 +2334,61 @@
         <v>0.7</v>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E29" t="n">
+        <v>452</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="30">
@@ -1452,30 +2401,61 @@
         <v>0.7</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E30" t="n">
+        <v>452</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="31">
@@ -1488,30 +2468,61 @@
         <v>0.7</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E31" t="n">
+        <v>450</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="32">
@@ -1524,30 +2535,61 @@
         <v>0.7</v>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E32" t="n">
+        <v>448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="33">
@@ -1560,30 +2602,61 @@
         <v>0.7</v>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E33" t="n">
+        <v>443</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="34">
@@ -1596,13 +2669,62 @@
         <v>0.7</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E34" t="n">
+        <v>421</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1617,27 +2739,58 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E35" t="n">
+        <v>516</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="36">
@@ -1650,30 +2803,61 @@
         <v>0.8</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E36" t="n">
+        <v>467</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="37">
@@ -1686,30 +2870,61 @@
         <v>0.8</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E37" t="n">
+        <v>453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="38">
@@ -1722,30 +2937,61 @@
         <v>0.8</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E38" t="n">
+        <v>452</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="39">
@@ -1758,30 +3004,61 @@
         <v>0.8</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E39" t="n">
+        <v>452</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="40">
@@ -1794,30 +3071,61 @@
         <v>0.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E40" t="n">
+        <v>452</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="41">
@@ -1830,30 +3138,61 @@
         <v>0.8</v>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E41" t="n">
+        <v>452</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="42">
@@ -1866,30 +3205,61 @@
         <v>0.8</v>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E42" t="n">
+        <v>450</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="43">
@@ -1902,30 +3272,61 @@
         <v>0.8</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E43" t="n">
+        <v>448</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="44">
@@ -1938,30 +3339,61 @@
         <v>0.8</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E44" t="n">
+        <v>443</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="45">
@@ -1974,13 +3406,62 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E45" t="n">
+        <v>421</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1995,27 +3476,58 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E46" t="n">
+        <v>516</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="47">
@@ -2028,30 +3540,61 @@
         <v>0.9</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E47" t="n">
+        <v>467</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="48">
@@ -2064,30 +3607,61 @@
         <v>0.9</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E48" t="n">
+        <v>453</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="49">
@@ -2100,30 +3674,61 @@
         <v>0.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E49" t="n">
+        <v>452</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="50">
@@ -2136,30 +3741,61 @@
         <v>0.9</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E50" t="n">
+        <v>452</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="51">
@@ -2172,30 +3808,61 @@
         <v>0.9</v>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E51" t="n">
+        <v>452</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="52">
@@ -2208,30 +3875,61 @@
         <v>0.9</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E52" t="n">
+        <v>452</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="53">
@@ -2244,30 +3942,61 @@
         <v>0.9</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E53" t="n">
+        <v>450</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="54">
@@ -2280,30 +4009,61 @@
         <v>0.9</v>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E54" t="n">
+        <v>448</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="55">
@@ -2316,30 +4076,61 @@
         <v>0.9</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E55" t="n">
+        <v>443</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="56">
@@ -2352,13 +4143,62 @@
         <v>0.9</v>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E56" t="n">
+        <v>421</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2373,27 +4213,58 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3945</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_05_image_3']</t>
-        </is>
+        <v>0.1265679798897378</v>
+      </c>
+      <c r="E57" t="n">
+        <v>516</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[1.2813, 1.2108, 0.9889]</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.006028327354329357</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0.071, 0.0732, 0.0752]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.02286216167843057</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.04721184841253156</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>tr_01_image_15</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>5.160248215306131</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>5.147796737926722</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>4.927602904450526</v>
       </c>
     </row>
     <row r="58">
@@ -2406,30 +4277,61 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_3', 'tr_05_image_1']</t>
-        </is>
+        <v>0.06597889870061355</v>
+      </c>
+      <c r="E58" t="n">
+        <v>467</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[1.012, 0.5892, 0.5348]</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_17', 'tr_005_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.00737179733299896</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0.0, 0.0725, 0.0826]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.007387773305339533</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.09523095182732755</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>7.511861482325967</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>7.375267446412719</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>6.479077188782955</v>
       </c>
     </row>
     <row r="59">
@@ -2442,30 +4344,61 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02943423845750421</v>
+      </c>
+      <c r="E59" t="n">
+        <v>453</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[0.1711, 0.1711, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.07555009203458697</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0051]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.09391062917175756</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>8.647051442867506</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="60">
@@ -2478,30 +4411,61 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['tr_2_image_13', 'tr_2_image_14', 'tr_1_image_6']</t>
-        </is>
+        <v>0.02611547682745448</v>
+      </c>
+      <c r="E60" t="n">
+        <v>452</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[0.1481, 0.1481, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_02_image_7']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0029]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="61">
@@ -2514,30 +4478,61 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_14', 'tr_005_image_1']</t>
-        </is>
+        <v>0.02613127689053557</v>
+      </c>
+      <c r="E61" t="n">
+        <v>452</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[0.987, 0.4806, 0.4551]</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_2', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.09391062917175756</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0084, 0.0084]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>4.539013743301668</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>3.072407189585277</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>tr_2_image_13</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.749120496584838</v>
       </c>
     </row>
     <row r="62">
@@ -2550,30 +4545,61 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_1', 'tr_01_image_14']</t>
-        </is>
+        <v>0.02721624551320038</v>
+      </c>
+      <c r="E62" t="n">
+        <v>452</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[1.0214, 0.9909, 0.9832]</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_005_image_1', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0.0101, 0.0305, 0.0328]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.3133141568291585</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>4.162228307852897</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.531074258441267</v>
       </c>
     </row>
     <row r="63">
@@ -2586,30 +4612,61 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_02_image_7', 'tr_02_image_4']</t>
-        </is>
+        <v>0.0277322222559946</v>
+      </c>
+      <c r="E63" t="n">
+        <v>452</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1.8802, 1.4531, 1.4023]</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_3', 'tr_005_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0.0132, 0.0183, 0.0213]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.2460562076663328</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>5.073444662834357</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>4.295046607079872</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>3.890871751936716</v>
       </c>
     </row>
     <row r="64">
@@ -2622,30 +4679,61 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7268</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_05_image_12', 'tr_05_image_4']</t>
-        </is>
+        <v>0.03043359146842704</v>
+      </c>
+      <c r="E64" t="n">
+        <v>450</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[1.8802, 1.6157, 1.6093]</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_5', 'tr_1_image_3']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0.05566303399913749</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0.0498, 0.0498, 0.094]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2416561263400639</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>5.113289415162818</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>4.723278833010282</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>tr_005_image_5</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.952075413938775</v>
       </c>
     </row>
     <row r="65">
@@ -2658,30 +4746,61 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_11']</t>
-        </is>
+        <v>0.03358872425375597</v>
+      </c>
+      <c r="E65" t="n">
+        <v>448</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8135, 1.8135]</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_14', 'tr_1_image_17']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.09440270914022392</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0011, 0.0122]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2350896327799812</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>5.045300344049692</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>3.364213710472119</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.213327622664826</v>
       </c>
     </row>
     <row r="66">
@@ -2694,30 +4813,61 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8964</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['tr_01_image_5', 'tr_01_image_11', 'tr_1_image_17']</t>
-        </is>
+        <v>0.04238372054396225</v>
+      </c>
+      <c r="E66" t="n">
+        <v>443</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[1.8802, 1.7135, 0.8678]</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_2_image_1', 'tr_2_image_9']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03647837701097206</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0.1178, 0.6191, 0.6191]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1421958877543917</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2290996188287554</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>4.798079200097702</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>4.657743723491048</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>tr_005_image_15</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.793751209141108</v>
       </c>
     </row>
     <row r="67">
@@ -2730,13 +4880,62 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.04716090510939462</v>
+      </c>
+      <c r="E67" t="n">
+        <v>421</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04575233760383567</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.07080500797651061</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1013895462628019</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>3.669719821684209</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>3.468027190370744</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.057884946398643</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2751,27 +4950,58 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4122</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_10', 'tr_1_image_16']</t>
-        </is>
+        <v>0.2504987022994596</v>
+      </c>
+      <c r="E68" t="n">
+        <v>874</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[1.2454, 1.2431, 1.1358]</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['tr_005_image_12', 'tr_005_image_2', 'tr_005_image_3']</t>
-        </is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.008220966260875715</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0.0389, 0.0435, 0.0669]</t>
-        </is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01073340130829059</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>tr_01_image_6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.01150511084651904</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>tr_05_image_4</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>3.063083361794847</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>tr_2_image_3</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2.717304348834682</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>tr_005_image_10</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.632234241365826</v>
       </c>
     </row>
     <row r="69">
@@ -2784,30 +5014,61 @@
         <v>1.1</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4971</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_17', 'tr_01_image_10']</t>
-        </is>
+        <v>0.1855201142252104</v>
+      </c>
+      <c r="E69" t="n">
+        <v>612</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[1.7249, 1.3694, 1.2277]</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['tr_005_image_10', 'tr_1_image_18', 'tr_1_image_5']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01409328837859576</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0.0892, 0.121, 0.1322]</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.04893972852892455</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>tr_01_image_14</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0495739784278043</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>tr_1_image_8</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>4.707158318451125</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>tr_02_image_15</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>3.959055280305431</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>tr_005_image_10</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3.930034542071218</v>
       </c>
     </row>
     <row r="70">
@@ -2820,30 +5081,61 @@
         <v>1.1</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4143</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_01_image_10', 'tr_01_image_4']</t>
-        </is>
+        <v>0.1214816379634596</v>
+      </c>
+      <c r="E70" t="n">
+        <v>512</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[1.2665, 0.8399, 0.8148]</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_18', 'tr_1_image_1']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.007574127644462839</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0.0126, 0.0505, 0.0568]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.01455908837336974</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.03482022109904676</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>tr_1_image_8</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>6.20217164705516</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>5.818901984756031</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>tr_005_image_12</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>5.408942440075937</v>
       </c>
     </row>
     <row r="71">
@@ -2856,30 +5148,61 @@
         <v>1.1</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0515</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_17', 'tr_01_image_10']</t>
-        </is>
+        <v>0.06640825718078322</v>
+      </c>
+      <c r="E71" t="n">
+        <v>469</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[0.8248, 0.1322, 0.1275]</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['tr_05_image_6', 'tr_01_image_1', 'tr_1_image_1']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.003406981995853015</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0.0, 0.0016, 0.0032]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.01521605654224026</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1222407342289507</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>6.638457305543971</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>tr_2_image_8</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>6.616279740141981</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6.599324125967102</v>
       </c>
     </row>
     <row r="72">
@@ -2892,30 +5215,61 @@
         <v>1.1</v>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2362</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_1', 'tr_1_image_4']</t>
-        </is>
+        <v>0.04346487699026</v>
+      </c>
+      <c r="E72" t="n">
+        <v>457</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[0.4788, 0.4313, 0.4229]</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_2', 'tr_01_image_5']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0.0073, 0.0158, 0.0158]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.06468462273531417</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.1444546497630434</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>7.920929962006909</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>7.357319772716665</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>tr_005_image_14</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>4.721977459678</v>
       </c>
     </row>
     <row r="73">
@@ -2928,30 +5282,61 @@
         <v>1.1</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2415</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_2', 'tr_1_image_1']</t>
-        </is>
+        <v>0.03922907353346485</v>
+      </c>
+      <c r="E73" t="n">
+        <v>453</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[0.4577, 0.4101, 0.4024]</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_6', 'tr_01_image_1']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0.0263, 0.0417, 0.0494]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.1158811498015181</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.1572967515279243</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>8.061297377496865</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>4.454567355019421</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>tr_005_image_2</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.565393034632917</v>
       </c>
     </row>
     <row r="74">
@@ -2964,30 +5349,61 @@
         <v>1.1</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2777</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>['tr_01_image_13', 'tr_01_image_6', 'tr_01_image_14']</t>
-        </is>
+        <v>0.03922992222652284</v>
+      </c>
+      <c r="E74" t="n">
+        <v>453</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[0.6302, 0.586, 0.5346]</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['tr_05_image_1', 'tr_01_image_2', 'tr_01_image_10']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0.0833, 0.1081, 0.1155]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.1158811498015181</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1572967515279243</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>8.061297377496865</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>4.444933261654856</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>tr_005_image_2</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>3.565393034632917</v>
       </c>
     </row>
     <row r="75">
@@ -3000,30 +5416,61 @@
         <v>1.1</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>['tr_01_image_1', 'tr_02_image_4', 'tr_01_image_13']</t>
-        </is>
+        <v>0.03319159440402143</v>
+      </c>
+      <c r="E75" t="n">
+        <v>452</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[1.1468, 1.1311, 0.8226]</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['tr_01_image_11', 'tr_01_image_5', 'tr_01_image_3']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0.0043, 0.0109, 0.037]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.1572967515279243</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.2806744289176198</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>4.444933261654856</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>4.400624495172319</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.608832793650699</v>
       </c>
     </row>
     <row r="76">
@@ -3036,30 +5483,61 @@
         <v>1.1</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5668</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>['tr_02_image_8', 'tr_02_image_4', 'tr_01_image_10']</t>
-        </is>
+        <v>0.03311476403093064</v>
+      </c>
+      <c r="E76" t="n">
+        <v>452</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[1.4475, 1.411, 1.2656]</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['tr_005_image_5', 'tr_01_image_11', 'tr_005_image_9']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0.0238, 0.0365, 0.0446]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1572967515279243</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2806744289176198</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>4.510883851589358</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>4.400624495172319</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3.608832793650699</v>
       </c>
     </row>
     <row r="77">
@@ -3072,30 +5550,61 @@
         <v>1.1</v>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6378</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>['tr_01_image_1', 'tr_01_image_12', 'tr_05_image_1']</t>
-        </is>
+        <v>0.03424319156800749</v>
+      </c>
+      <c r="E77" t="n">
+        <v>452</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[1.8802, 1.854, 1.5829]</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['tr_005_image_8', 'tr_005_image_7', 'tr_005_image_4']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0.031, 0.0414, 0.0467]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1697353588852821</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2462412239292361</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>4.805675499264115</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>4.001204786194267</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>3.743558419057849</v>
       </c>
     </row>
     <row r="78">
@@ -3108,30 +5617,61 @@
         <v>1.1</v>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7958</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>['tr_01_image_4', 'tr_01_image_12', 'tr_01_image_13']</t>
-        </is>
+        <v>0.03414190910318756</v>
+      </c>
+      <c r="E78" t="n">
+        <v>452</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[1.8802, 1.8735, 1.8735]</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['tr_1_image_8', 'tr_1_image_7', 'tr_1_image_14']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05186307781463209</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0.0528, 0.0594, 0.0726]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.1430381962982978</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1829510163408962</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>5.215746419693376</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>tr_02_image_3</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>4.090909090909093</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>tr_1_image_9</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>4.021090535689281</v>
       </c>
     </row>
     <row r="79">
@@ -3147,27 +5687,58 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3741</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_17', 'tr_1_image_8']</t>
-        </is>
+        <v>0.2745779795149937</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1113</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[1.4357, 1.3466, 1.0247]</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['tr_005_image_9', 'tr_02_image_15', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.009684132234565017</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0.0258, 0.0556, 0.0669]</t>
-        </is>
+          <t>tr_02_image_14</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01091255879318932</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.01916421129859932</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>tr_05_image_7</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>2.411417499208051</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>tr_005_image_6</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>2.144693789500492</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>tr_01_image_6</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.988014003009932</v>
       </c>
     </row>
     <row r="80">
@@ -3180,30 +5751,61 @@
         <v>1.2</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5128</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_05_image_5']</t>
-        </is>
+        <v>0.2546702657791756</v>
+      </c>
+      <c r="E80" t="n">
+        <v>852</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[1.8678, 1.259, 1.0994]</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['tr_005_image_12', 'tr_005_image_5', 'tr_1_image_13']</t>
-        </is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0165998327004665</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0.0792, 0.0884, 0.1147]</t>
-        </is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02396453177987844</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>tr_1_image_4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.02497680700622462</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>tr_2_image_15</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>3.291458549071701</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>2.632110972567747</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>tr_005_image_7</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.589347844706776</v>
       </c>
     </row>
     <row r="81">
@@ -3216,30 +5818,61 @@
         <v>1.2</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_1_image_10']</t>
-        </is>
+        <v>0.2148495366420559</v>
+      </c>
+      <c r="E81" t="n">
+        <v>659</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[1.8678, 1.1857, 1.1344]</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_12', 'tr_1_image_11']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.005014090590397888</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0.0, 0.0583, 0.0604]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.02437127289634477</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>tr_005_image_9</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.04112571079127029</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>tr_1_image_4</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>3.509463297073601</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>3.193975706083568</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>tr_2_image_15</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3.174256959529806</v>
       </c>
     </row>
     <row r="82">
@@ -3252,30 +5885,61 @@
         <v>1.2</v>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2965</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_01_image_10', 'tr_01_image_8']</t>
-        </is>
+        <v>0.1425050356582342</v>
+      </c>
+      <c r="E82" t="n">
+        <v>521</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[1.6096, 0.5773, 0.5529]</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_9', 'tr_1_image_11']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02558495937879255</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0.0, 0.0141, 0.0184]</t>
-        </is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.05997974849458795</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>tr_005_image_4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.06131863245619556</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>6.793313069952919</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>5.453950835998005</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>5.099623054994388</v>
       </c>
     </row>
     <row r="83">
@@ -3288,30 +5952,61 @@
         <v>1.2</v>
       </c>
       <c r="C83" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1974</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_1_image_3', 'tr_01_image_10']</t>
-        </is>
+        <v>0.1052629642374149</v>
+      </c>
+      <c r="E83" t="n">
+        <v>481</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[1.3678, 0.637, 0.4475]</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_1_image_15', 'tr_1_image_4']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01424206674357158</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0.0072, 0.0072, 0.0168]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.03299978314499417</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.06303618007082204</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>7.591040969610785</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>5.610220026303151</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>5.477964002069121</v>
       </c>
     </row>
     <row r="84">
@@ -3324,30 +6019,61 @@
         <v>1.2</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06610000000000001</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_05_image_7', 'tr_2_image_13']</t>
-        </is>
+        <v>0.06523955440358153</v>
+      </c>
+      <c r="E84" t="n">
+        <v>461</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[0.7437, 0.1596, 0.1592]</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_12', 'tr_005_image_8']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04794853472955397</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0002]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.05800635784524915</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0.08059789199068899</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>tr_1_image_13</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>6.982105601513678</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>5.993566841193997</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>5.662577611574409</v>
       </c>
     </row>
     <row r="85">
@@ -3360,30 +6086,61 @@
         <v>1.2</v>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_11', 'tr_1_image_2']</t>
-        </is>
+        <v>0.03603949629546336</v>
+      </c>
+      <c r="E85" t="n">
+        <v>454</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[0.4877, 0.4702, 0.4374]</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_01_image_3', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05800635784524915</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[0.0051, 0.0113, 0.0113]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.07452731889677418</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3176291055769906</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>tr_01_image_11</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>7.390686993181672</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>tr_005_image_11</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>4.884135330569954</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4.683210963629521</v>
       </c>
     </row>
     <row r="86">
@@ -3396,30 +6153,61 @@
         <v>1.2</v>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2395</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>['tr_1_image_2', 'tr_005_image_1', 'tr_1_image_11']</t>
-        </is>
+        <v>0.03179806921901381</v>
+      </c>
+      <c r="E86" t="n">
+        <v>452</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[0.5193, 0.4941, 0.4564]</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['tr_01_image_2', 'tr_01_image_13', 'tr_01_image_1']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0.05800635784524915</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[0.0017, 0.0017, 0.014]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1544396001872842</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0.3365157705484179</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>tr_005_image_11</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>4.884135330569954</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>4.683210963629521</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>tr_05_image_6</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3.395750048261317</v>
       </c>
     </row>
     <row r="87">
@@ -3432,30 +6220,61 @@
         <v>1.2</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_005_image_1', 'tr_1_image_2']</t>
-        </is>
+        <v>0.03454377918245569</v>
+      </c>
+      <c r="E87" t="n">
+        <v>452</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[0.9818, 0.502, 0.4918]</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_01_image_9', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.05800635784524915</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[0.0021, 0.006, 0.0141]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1544396001872842</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3365157705484179</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>6.851668059039115</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>tr_005_image_11</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>4.884135330569954</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>4.683210963629521</v>
       </c>
     </row>
     <row r="88">
@@ -3468,30 +6287,61 @@
         <v>1.2</v>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_05_image_1', 'tr_02_image_7']</t>
-        </is>
+        <v>0.03468302799946496</v>
+      </c>
+      <c r="E88" t="n">
+        <v>452</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[0.9943, 0.9836, 0.9349]</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['tr_01_image_2', 'tr_01_image_4', 'tr_01_image_5']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0.05800635784524915</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[0.0017, 0.0061, 0.0061]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1544396001872842</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0.3365157705484179</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>6.698935840845377</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>tr_005_image_11</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>4.884135330569954</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4.683210963629521</v>
       </c>
     </row>
     <row r="89">
@@ -3504,30 +6354,61 @@
         <v>1.2</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>['tr_05_image_1', 'tr_01_image_14', 'tr_02_image_11']</t>
-        </is>
+        <v>0.03313331005925987</v>
+      </c>
+      <c r="E89" t="n">
+        <v>452</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[1.6564, 1.2443, 1.117]</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_3', 'tr_01_image_11']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1046561155363971</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[0.0, 0.0019, 0.0224]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.1544396001872842</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3365157705484179</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>tr_1_image_14</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>4.695812605499769</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>tr_005_image_11</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>4.353694406314095</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.432458969942062</v>
       </c>
     </row>
     <row r="90">
@@ -3543,27 +6424,58 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_1_image_17', 'tr_1_image_3']</t>
-        </is>
+        <v>0.2900797486806482</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1212</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[1.3021, 1.2212, 1.0922]</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['tr_005_image_4', 'tr_005_image_12', 'tr_02_image_15']</t>
-        </is>
+          <t>tr_1_image_8</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.009982015300683033</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[0.0464, 0.0489, 0.0513]</t>
-        </is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.02837352721010003</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.03687329237996871</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1.866978090424602</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>1.801973781223222</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.783126377777595</v>
       </c>
     </row>
     <row r="91">
@@ -3576,30 +6488,61 @@
         <v>1.3</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4165</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_1_image_17']</t>
-        </is>
+        <v>0.2804698432649993</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1037</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[1.686, 1.5864, 1.1218]</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['tr_005_image_8', 'tr_005_image_11', 'tr_005_image_4']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0.01228882302779512</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[0.0474, 0.0474, 0.0896]</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01828808676288528</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>tr_1_image_7</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.01948931271470791</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>2.115971058818622</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>2.081209798194046</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.052233445641733</v>
       </c>
     </row>
     <row r="92">
@@ -3612,30 +6555,61 @@
         <v>1.3</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4321</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_10', 'tr_1_image_3']</t>
-        </is>
+        <v>0.257018640568021</v>
+      </c>
+      <c r="E92" t="n">
+        <v>834</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[1.391, 1.3236, 1.2862]</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_005_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0.005255970428530669</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[0.0, 0.058, 0.0599]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.01234328041133667</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0270952986935181</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>2.547572634840317</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2.494657849479988</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.342318976880745</v>
       </c>
     </row>
     <row r="93">
@@ -3648,30 +6622,61 @@
         <v>1.3</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3744</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_01_image_11', 'tr_01_image_8']</t>
-        </is>
+        <v>0.191620578119544</v>
+      </c>
+      <c r="E93" t="n">
+        <v>586</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[1.6108, 0.8245, 0.8118]</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_5', 'tr_1_image_6']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.008049544476589654</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[0.0, 0.0321, 0.0563]</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.008445211012461911</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0.01826876240862433</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>tr_02_image_8</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>4.927358689179685</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>4.02173755309871</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>tr_005_image_13</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.62747820059649</v>
       </c>
     </row>
     <row r="94">
@@ -3684,30 +6689,61 @@
         <v>1.3</v>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_1_image_14', 'tr_1_image_3']</t>
-        </is>
+        <v>0.1604300440058061</v>
+      </c>
+      <c r="E94" t="n">
+        <v>525</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[1.3174, 0.984, 0.5034]</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_005_image_9', 'tr_1_image_6']</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0.002431162220056455</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[0.0, 0.0024, 0.0392]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.008455771490530584</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0.02573320727477032</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>5.826428076220672</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>5.231193421714075</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>tr_005_image_13</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>4.984345783224319</v>
       </c>
     </row>
     <row r="95">
@@ -3720,30 +6756,61 @@
         <v>1.3</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0607</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_1_image_14', 'tr_01_image_10']</t>
-        </is>
+        <v>0.1114389988314577</v>
+      </c>
+      <c r="E95" t="n">
+        <v>490</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[0.6902, 0.5489, 0.1736]</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_11', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01600614754121019</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0003]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.03116276984884319</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0.04294549328130379</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>7.633320465659562</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>tr_005_image_14</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>5.47630088164896</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>tr_05_image_15</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5.45407764672558</v>
       </c>
     </row>
     <row r="96">
@@ -3756,30 +6823,61 @@
         <v>1.3</v>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0479</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_005_image_9', 'tr_2_image_13']</t>
-        </is>
+        <v>0.09709369877727721</v>
+      </c>
+      <c r="E96" t="n">
+        <v>472</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[0.1705, 0.1434, 0.1362]</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['tr_05_image_11', 'tr_01_image_2', 'tr_1_image_2']</t>
-        </is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0.00200752627140755</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[0.0, 0.0016, 0.0032]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.07730641391418877</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0.09385109100988238</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>7.602710267279199</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>6.922456472888959</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>6.165186509656576</v>
       </c>
     </row>
     <row r="97">
@@ -3792,30 +6890,61 @@
         <v>1.3</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0495</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_005_image_9', 'tr_05_image_7']</t>
-        </is>
+        <v>0.06663141134956345</v>
+      </c>
+      <c r="E97" t="n">
+        <v>459</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[0.1705, 0.1434, 0.1398]</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['tr_05_image_11', 'tr_1_image_2', 'tr_005_image_6']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.06422817005500203</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[0.0, 0.0032, 0.0036]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0.12580025111902</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2133504254649621</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>7.828022077696461</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>6.387783458197497</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>tr_1_image_13</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5.448871976815964</v>
       </c>
     </row>
     <row r="98">
@@ -3828,30 +6957,61 @@
         <v>1.3</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_6', 'tr_1_image_17']</t>
-        </is>
+        <v>0.05115240803814423</v>
+      </c>
+      <c r="E98" t="n">
+        <v>454</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[0.4722, 0.4352, 0.4352]</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['tr_01_image_4', 'tr_01_image_2', 'tr_01_image_9']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.07718039326790702</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[0.0151, 0.0468, 0.0468]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0.1599732689226265</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2133504254649621</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>5.865709888360954</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>tr_005_image_4</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>4.383267568479943</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4.124774892322602</v>
       </c>
     </row>
     <row r="99">
@@ -3864,30 +7024,61 @@
         <v>1.3</v>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2483</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>['tr_01_image_1', 'tr_005_image_1', 'tr_1_image_6']</t>
-        </is>
+        <v>0.04159272206375692</v>
+      </c>
+      <c r="E99" t="n">
+        <v>452</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[0.4952, 0.4722, 0.4352]</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['tr_01_image_7', 'tr_01_image_4', 'tr_01_image_2']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.1067158140311817</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[0.0151, 0.031, 0.0468]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1599732689226265</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2133504254649621</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>4.739437623149546</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>tr_005_image_4</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>4.383267568479943</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>4.124774892322602</v>
       </c>
     </row>
     <row r="100">
@@ -3900,30 +7091,61 @@
         <v>1.3</v>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2575</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>['tr_1_image_18', 'tr_01_image_7', 'tr_005_image_1']</t>
-        </is>
+        <v>0.04155834935726808</v>
+      </c>
+      <c r="E100" t="n">
+        <v>452</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[0.5558, 0.5434, 0.4979]</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['tr_01_image_12', 'tr_01_image_2', 'tr_01_image_9']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.1067158140311817</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[0.0041, 0.0124, 0.0124]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0.1599732689226265</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2133504254649621</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>4.739437623149546</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>tr_005_image_4</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>4.383267568479943</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>4.124774892322602</v>
       </c>
     </row>
     <row r="101">
@@ -3939,27 +7161,58 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3887</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_1_image_16', 'tr_1_image_10']</t>
-        </is>
+        <v>0.2908422182641587</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1261</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[1.637, 1.5361, 1.3851]</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['tr_01_image_2', 'tr_1_image_5', 'tr_005_image_12']</t>
-        </is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0.002577223720743473</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[0.0032, 0.0256, 0.027]</t>
-        </is>
+          <t>tr_005_image_2</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0.01256834788733957</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0.01444147441982406</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1.873576138368449</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>1.831836704579736</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>tr_05_image_5</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.822097170565545</v>
       </c>
     </row>
     <row r="102">
@@ -3972,30 +7225,61 @@
         <v>1.4</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4502</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_17', 'tr_1_image_3']</t>
-        </is>
+        <v>0.2825989585819993</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1121</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[1.7011, 1.4068, 1.2376]</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>['tr_005_image_10', 'tr_005_image_4', 'tr_01_image_1']</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0.001112034299735624</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[0.0036, 0.0426, 0.0462]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0.006514588433118938</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0.008568521976532109</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>2.303992775846471</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>1.996465620531949</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.888063809113737</v>
       </c>
     </row>
     <row r="103">
@@ -4008,30 +7292,61 @@
         <v>1.4</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4642</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_05_image_7']</t>
-        </is>
+        <v>0.2776286022471784</v>
+      </c>
+      <c r="E103" t="n">
+        <v>909</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[1.8678, 1.317, 1.1461]</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_1', 'tr_01_image_6']</t>
-        </is>
+          <t>tr_02_image_11</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0.01447963712357865</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[0.0614, 0.0714, 0.1318]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0.01476855170411406</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>tr_01_image_6</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0.02057337142924012</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>2.484070396632048</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>tr_05_image_7</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>2.319918458398554</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.242245464093888</v>
       </c>
     </row>
     <row r="104">
@@ -4044,30 +7359,61 @@
         <v>1.4</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4024</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>['tr_1_image_10', 'tr_1_image_16', 'tr_1_image_8']</t>
-        </is>
+        <v>0.2178317525157779</v>
+      </c>
+      <c r="E104" t="n">
+        <v>636</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[1.6678, 1.3837, 1.1601]</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_2', 'tr_1_image_4']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0.01600936758029174</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[0.0, 0.0612, 0.079]</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0.03348481235229267</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0.03986994409108901</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>tr_05_image_5</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>3.846288778866628</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>tr_1_image_3</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>3.444149785714839</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3.136449571652749</v>
       </c>
     </row>
     <row r="105">
@@ -4080,30 +7426,61 @@
         <v>1.4</v>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3034</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>['tr_1_image_14', 'tr_01_image_10', 'tr_01_image_8']</t>
-        </is>
+        <v>0.1841494200302653</v>
+      </c>
+      <c r="E105" t="n">
+        <v>574</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[0.8379, 0.6227, 0.6152]</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_7', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.01528465243783288</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[0.0, 0.0004, 0.022]</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0.02757391114770643</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0.03340651390990559</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>tr_02_image_15</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>4.551664904453598</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>tr_05_image_4</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>4.420514399029919</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>tr_005_image_10</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4.249133377717662</v>
       </c>
     </row>
     <row r="106">
@@ -4116,30 +7493,61 @@
         <v>1.4</v>
       </c>
       <c r="C106" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09760000000000001</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_01_image_7']</t>
-        </is>
+        <v>0.1389741687941364</v>
+      </c>
+      <c r="E106" t="n">
+        <v>509</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[1.2844, 0.7337, 0.1845]</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_05_image_2', 'tr_1_image_2']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.003312711476793643</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0018]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0.006541694530130205</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0.03878219271556077</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>5.747826311787431</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>tr_02_image_15</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>5.63823493350154</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>tr_05_image_15</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>5.546914940023882</v>
       </c>
     </row>
     <row r="107">
@@ -4152,30 +7560,61 @@
         <v>1.4</v>
       </c>
       <c r="C107" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08119999999999999</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>['tr_1_image_3', 'tr_01_image_7', 'tr_2_image_13']</t>
-        </is>
+        <v>0.1025575085053528</v>
+      </c>
+      <c r="E107" t="n">
+        <v>478</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[0.7172, 0.1812, 0.1685]</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>['tr_05_image_2', 'tr_005_image_5', 'tr_005_image_6']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0.03490154201980515</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[0.0, 0.0036, 0.0036]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0.04322468315469141</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0.05204917830481855</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>7.557164515089316</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>7.513803403406593</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>tr_1_image_16</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>6.027204525816861</v>
       </c>
     </row>
     <row r="108">
@@ -4188,30 +7627,61 @@
         <v>1.4</v>
       </c>
       <c r="C108" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>['tr_01_image_7', 'tr_05_image_7', 'tr_2_image_13']</t>
-        </is>
+        <v>0.08015147953380447</v>
+      </c>
+      <c r="E108" t="n">
+        <v>463</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[0.178, 0.1596, 0.1592]</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>['tr_05_image_2', 'tr_005_image_3', 'tr_005_image_10']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0.03490154201980515</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[0.0, 0.0002, 0.0002]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0.06509023410571727</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0.06798730455620135</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>8.071509414450981</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>7.513803403406593</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>5.727940601303104</v>
       </c>
     </row>
     <row r="109">
@@ -4224,30 +7694,61 @@
         <v>1.4</v>
       </c>
       <c r="C109" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0538</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>['tr_01_image_7', 'tr_05_image_7', 'tr_1_image_16']</t>
-        </is>
+        <v>0.05770708994473121</v>
+      </c>
+      <c r="E109" t="n">
+        <v>457</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[0.1602, 0.15, 0.1322]</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>['tr_05_image_2', 'tr_01_image_6', 'tr_1_image_11']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0.07905127055930704</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[0.0, 0.0002, 0.0022]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0.11767250978301</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0.1286131928826059</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>tr_1_image_11</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>6.816499222778164</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>5.847398528341445</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>tr_2_image_10</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3.847768460920113</v>
       </c>
     </row>
     <row r="110">
@@ -4260,30 +7761,61 @@
         <v>1.4</v>
       </c>
       <c r="C110" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_2', 'tr_1_image_1']</t>
-        </is>
+        <v>0.04450257496748138</v>
+      </c>
+      <c r="E110" t="n">
+        <v>454</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[0.5477, 0.4918, 0.4689]</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>['tr_01_image_9', 'tr_01_image_13', 'tr_01_image_3']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[0.0023, 0.0099, 0.0252]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0.11767250978301</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0.2616576585740568</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>5.78751476048258</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>tr_2_image_10</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>3.847768460920113</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>tr_1_image_17</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.005098563623228</v>
       </c>
     </row>
     <row r="111">
@@ -4296,30 +7828,61 @@
         <v>1.4</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2623</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_18', 'tr_1_image_1']</t>
-        </is>
+        <v>0.03668985145023233</v>
+      </c>
+      <c r="E111" t="n">
+        <v>452</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[0.5706, 0.4765, 0.4689]</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>['tr_01_image_6', 'tr_01_image_3', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.11767250978301</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[0.0099, 0.0252, 0.0252]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0.2616576585740568</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0.2783505154639162</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>tr_2_image_10</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>3.847768460920113</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>tr_1_image_17</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>3.005098563623228</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>tr_02_image_6</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.567010309278349</v>
       </c>
     </row>
     <row r="112">
@@ -4335,27 +7898,58 @@
         <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4004</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>['tr_1_image_17', 'tr_1_image_16', 'tr_1_image_10']</t>
-        </is>
+        <v>0.298426832280082</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1362</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[1.5606, 1.3937, 1.2115]</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>['tr_005_image_10', 'tr_005_image_2', 'tr_01_image_12']</t>
-        </is>
+          <t>tr_02_image_12</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.00830196245326021</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[0.0062, 0.0089, 0.0294]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0.01030014625647669</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>tr_1_image_2</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0.01127150776965414</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1.869200415963437</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>1.744227772699354</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>tr_02_image_3</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>1.729072361856237</v>
       </c>
     </row>
     <row r="113">
@@ -4368,30 +7962,61 @@
         <v>1.5</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_3', 'tr_1_image_17']</t>
-        </is>
+        <v>0.2854275888901034</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1202</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[1.686, 1.5524, 1.1205]</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>['tr_01_image_14', 'tr_01_image_2', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.008222143917320561</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[0.0245, 0.0406, 0.0449]</t>
-        </is>
+          <t>tr_05_image_5</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0.03105990447939647</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0.03956089543935354</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>tr_2_image_5</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1.906904916209356</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>tr_05_image_3</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>1.821441541256016</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.747879704406252</v>
       </c>
     </row>
     <row r="114">
@@ -4404,30 +8029,61 @@
         <v>1.5</v>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4993</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_05_image_10', 'tr_01_image_11']</t>
-        </is>
+        <v>0.2847941339015095</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1006</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[1.4204, 1.1104, 1.1041]</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>['tr_005_image_13', 'tr_02_image_3', 'tr_1_image_11']</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.007882250664057296</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[0.0347, 0.0388, 0.0966]</t>
-        </is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0196966149492025</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>tr_05_image_5</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0.02310458534278269</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>2.277421103501525</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>1.945406085862279</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>1.887799034041789</v>
       </c>
     </row>
     <row r="115">
@@ -4440,30 +8096,61 @@
         <v>1.5</v>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4394</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>['tr_1_image_16', 'tr_1_image_8', 'tr_1_image_10']</t>
-        </is>
+        <v>0.2540485449656882</v>
+      </c>
+      <c r="E115" t="n">
+        <v>775</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[1.3004, 1.1472, 1.1472]</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>['tr_005_image_12', 'tr_005_image_13', 'tr_005_image_5']</t>
-        </is>
+          <t>tr_01_image_12</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0126482305506518</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[0.0236, 0.0406, 0.0959]</t>
-        </is>
+          <t>tr_2_image_3</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0.05115258248879238</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0.05484716185668645</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>tr_05_image_2</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>2.860981024291809</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>2.851083413454292</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.333516887719978</v>
       </c>
     </row>
     <row r="116">
@@ -4476,30 +8163,61 @@
         <v>1.5</v>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4302</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_01_image_5', 'tr_01_image_6']</t>
-        </is>
+        <v>0.2079538767668724</v>
+      </c>
+      <c r="E116" t="n">
+        <v>605</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[0.8955, 0.8837, 0.86]</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_01_image_4', 'tr_1_image_1']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.00882387290831322</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[0.0, 0.0813, 0.0849]</t>
-        </is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0.05207075067794428</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>tr_2_image_1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0.05350302391585639</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>tr_05_image_4</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>4.383367750834645</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>3.538373036233467</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>tr_2_image_9</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3.370690506698953</v>
       </c>
     </row>
     <row r="117">
@@ -4512,30 +8230,61 @@
         <v>1.5</v>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2559</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>['tr_1_image_14', 'tr_1_image_3', 'tr_01_image_10']</t>
-        </is>
+        <v>0.1803106780202512</v>
+      </c>
+      <c r="E117" t="n">
+        <v>547</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[1.0049, 0.5514, 0.5461]</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_2_image_3', 'tr_1_image_1']</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.006564755740159253</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[0.0088, 0.0409, 0.0526]</t>
-        </is>
+          <t>tr_1_image_1</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0.01428485900267496</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0.01795104246351072</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>tr_05_image_4</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>5.048297164181855</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>tr_2_image_9</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>4.018041671415865</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>tr_02_image_2</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.918142960758359</v>
       </c>
     </row>
     <row r="118">
@@ -4548,30 +8297,61 @@
         <v>1.5</v>
       </c>
       <c r="C118" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0736</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_02_image_1', 'tr_01_image_5']</t>
-        </is>
+        <v>0.1180187448169445</v>
+      </c>
+      <c r="E118" t="n">
+        <v>495</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[0.1854, 0.1701, 0.1644]</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>['tr_05_image_1', 'tr_005_image_3', 'tr_005_image_4']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.01367896477134703</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[0.0, 0.0067, 0.0067]</t>
-        </is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0.03763631244111036</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>tr_2_image_2</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0.04931106139219236</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>tr_1_image_15</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>6.908709647016657</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>6.251286900505417</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>tr_005_image_10</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>5.696524718765288</v>
       </c>
     </row>
     <row r="119">
@@ -4584,30 +8364,61 @@
         <v>1.5</v>
       </c>
       <c r="C119" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0742</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_02_image_1', 'tr_01_image_5']</t>
-        </is>
+        <v>0.08073488423822132</v>
+      </c>
+      <c r="E119" t="n">
+        <v>471</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[0.1854, 0.1701, 0.1644]</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>['tr_05_image_1', 'tr_005_image_3', 'tr_005_image_4']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01367896477134703</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[0.0, 0.0067, 0.0067]</t>
-        </is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0142900894726734</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>tr_005_image_1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0.069900326574543</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>tr_005_image_10</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>6.623055942937906</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>tr_02_image_7</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>6.251286900505417</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>tr_05_image_7</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>6.216188920613106</v>
       </c>
     </row>
     <row r="120">
@@ -4620,30 +8431,61 @@
         <v>1.5</v>
       </c>
       <c r="C120" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0622</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>['tr_01_image_10', 'tr_02_image_1', 'tr_01_image_5']</t>
-        </is>
+        <v>0.05973685225808853</v>
+      </c>
+      <c r="E120" t="n">
+        <v>458</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[0.1731, 0.1552, 0.1529]</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>['tr_05_image_1', 'tr_1_image_1', 'tr_1_image_11']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.08508866604259571</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[0.0, 0.0009, 0.0009]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0.1032273708597737</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0.1903683025091772</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>tr_02_image_4</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>6.381649953194597</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>tr_1_image_10</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>5.918156602605634</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>tr_005_image_3</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>5.630155833413509</v>
       </c>
     </row>
     <row r="121">
@@ -4656,30 +8498,61 @@
         <v>1.5</v>
       </c>
       <c r="C121" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2399</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_1', 'tr_1_image_11']</t>
-        </is>
+        <v>0.0533476135605028</v>
+      </c>
+      <c r="E121" t="n">
+        <v>456</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[0.4919, 0.4242, 0.4242]</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.08508866604259571</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0092, 0.0173]</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0.1138283371850647</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0.1903683025091772</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>tr_02_image_4</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>6.381649953194597</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>tr_01_image_4</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>5.261398696554122</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4.875250821736607</v>
       </c>
     </row>
     <row r="122">
@@ -4692,30 +8565,61 @@
         <v>1.5</v>
       </c>
       <c r="C122" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2404</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>['tr_005_image_1', 'tr_1_image_1', 'tr_1_image_11']</t>
-        </is>
+        <v>0.05143599338882865</v>
+      </c>
+      <c r="E122" t="n">
+        <v>453</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[0.4919, 0.4242, 0.4242]</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>['tr_01_image_3', 'tr_01_image_4', 'tr_01_image_13']</t>
-        </is>
+          <t>tr_01_image_1</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.02886864116280295</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[0.0011, 0.0092, 0.0173]</t>
-        </is>
+          <t>tr_02_image_1</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0.08508866604259571</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>tr_05_image_1</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0.1903683025091772</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>tr_01_image_2</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>8.357471616631351</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>tr_02_image_4</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>6.381649953194597</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>tr_1_image_12</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>4.875250821736607</v>
       </c>
     </row>
   </sheetData>
